--- a/gc_report.xlsx
+++ b/gc_report.xlsx
@@ -531,7 +531,7 @@
         <v>32</v>
       </c>
       <c r="H2">
-        <v>0.735</v>
+        <v>0.725</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
@@ -557,19 +557,19 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9999999696771632</v>
+        <v>0.9999420137639272</v>
       </c>
       <c r="F3">
         <v>0.98</v>
       </c>
       <c r="G3">
-        <v>0.7257142857142858</v>
+        <v>0.7321428571428572</v>
       </c>
       <c r="H3" t="s">
         <v>32</v>
       </c>
       <c r="I3">
-        <v>0.9438150136258706</v>
+        <v>0.9939823107496032</v>
       </c>
       <c r="J3" t="s">
         <v>32</v>
@@ -595,16 +595,16 @@
         <v>0.9318600368324127</v>
       </c>
       <c r="F4">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="G4">
-        <v>0.5585714285714285</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
       </c>
       <c r="I4">
-        <v>0.7269805659653424</v>
+        <v>0.8028441704858906</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
@@ -630,16 +630,16 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="G5">
-        <v>0.63</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="H5" t="s">
         <v>32</v>
       </c>
       <c r="I5">
-        <v>0.9758961363711909</v>
+        <v>0.9758384973814157</v>
       </c>
       <c r="J5" t="s">
         <v>32</v>
@@ -662,19 +662,19 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5700000000000001</v>
+        <v>0.54</v>
       </c>
       <c r="H6" t="s">
         <v>32</v>
       </c>
       <c r="I6">
-        <v>0.6548002605157289</v>
+        <v>0.6567941620385526</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
@@ -697,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.9999937974605989</v>
+        <v>0.9999464535798339</v>
       </c>
       <c r="F7">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G7">
         <v>0.5714285714285714</v>
@@ -709,7 +709,7 @@
         <v>32</v>
       </c>
       <c r="I7">
-        <v>0.9701577184644731</v>
+        <v>0.9735480799325416</v>
       </c>
       <c r="J7" t="s">
         <v>32</v>
@@ -732,19 +732,19 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.8670331592792132</v>
+        <v>0.7580255003625727</v>
       </c>
       <c r="F8">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G8">
-        <v>0.7114285714285714</v>
+        <v>0.7414285714285714</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="I8">
-        <v>0.9727791333330439</v>
+        <v>0.9839499946097089</v>
       </c>
       <c r="J8" t="s">
         <v>32</v>
@@ -767,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.6034077386855896</v>
+        <v>0.6034027588324409</v>
       </c>
       <c r="F9">
-        <v>0.6</v>
+        <v>0.71</v>
       </c>
       <c r="G9">
         <v>0.2857142857142857</v>
@@ -779,7 +779,7 @@
         <v>32</v>
       </c>
       <c r="I9">
-        <v>0.8815325257242589</v>
+        <v>0.8871990296474435</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
@@ -837,19 +837,19 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.9999999999999248</v>
+        <v>0.9327235094660271</v>
       </c>
       <c r="F11">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.35</v>
+        <v>0.3078571428571428</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="I11">
-        <v>0.3598203449806902</v>
+        <v>0.3205809741773398</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
@@ -872,19 +872,19 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.999998690537528</v>
+        <v>0.999999958096461</v>
       </c>
       <c r="F12">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G12">
-        <v>0.3907142857142857</v>
+        <v>0.3307142857142857</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
       <c r="I12">
-        <v>0.4296492030164424</v>
+        <v>0.4325513506965651</v>
       </c>
       <c r="J12" t="s">
         <v>32</v>
@@ -910,16 +910,16 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="G13">
-        <v>0.6699999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
       </c>
       <c r="I13">
-        <v>0.9524055145880279</v>
+        <v>0.9585537977361916</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
@@ -942,19 +942,19 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.857773310666239</v>
+        <v>0.8643225808107002</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7678571428571428</v>
+        <v>0.6978571428571428</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
       </c>
       <c r="I14">
-        <v>0.8901865170736633</v>
+        <v>0.8902288467931158</v>
       </c>
       <c r="J14" t="s">
         <v>32</v>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.8163265305851662</v>
+        <v>0.8163265148939988</v>
       </c>
       <c r="F15">
         <v>0.99</v>
@@ -989,7 +989,7 @@
         <v>32</v>
       </c>
       <c r="I15">
-        <v>0.8942802761033218</v>
+        <v>0.8932822971611728</v>
       </c>
       <c r="J15" t="s">
         <v>32</v>
@@ -1012,19 +1012,19 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.9998664630794167</v>
+        <v>0.9996142192362972</v>
       </c>
       <c r="F16">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G16">
-        <v>0.6842857142857143</v>
+        <v>0.6342857142857143</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
       <c r="I16">
-        <v>0.8966902049019648</v>
+        <v>0.8553813521227718</v>
       </c>
       <c r="J16" t="s">
         <v>32</v>
@@ -1047,19 +1047,19 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.9999999543688414</v>
+        <v>0.9999985611864662</v>
       </c>
       <c r="F17">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G17">
-        <v>0.5928571428571429</v>
+        <v>0.6528571428571428</v>
       </c>
       <c r="H17" t="s">
         <v>32</v>
       </c>
       <c r="I17">
-        <v>0.9711756270224688</v>
+        <v>0.9838503259939992</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -1082,19 +1082,19 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.993804712572683</v>
+        <v>0.9915681842605448</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.7485714285714286</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="H18" t="s">
         <v>32</v>
       </c>
       <c r="I18">
-        <v>0.7821076621311159</v>
+        <v>0.8567978043241556</v>
       </c>
       <c r="J18" t="s">
         <v>32</v>
@@ -1117,19 +1117,19 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>0.9999837630411303</v>
+        <v>0.9999981868198751</v>
       </c>
       <c r="F19">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G19">
-        <v>0.7507142857142857</v>
+        <v>0.7007142857142857</v>
       </c>
       <c r="H19" t="s">
         <v>32</v>
       </c>
       <c r="I19">
-        <v>0.8606710463123771</v>
+        <v>0.9174374620405917</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
@@ -1152,19 +1152,19 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.9993943678097429</v>
+        <v>0.9598807654112183</v>
       </c>
       <c r="F20">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.9057142857142857</v>
+        <v>0.895</v>
       </c>
       <c r="H20" t="s">
         <v>32</v>
       </c>
       <c r="I20">
-        <v>0.9837578869482498</v>
+        <v>0.9509061379344278</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
@@ -1187,19 +1187,19 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.9027617197822541</v>
+        <v>0.8374922442792085</v>
       </c>
       <c r="F21">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G21">
-        <v>0.7042857142857143</v>
+        <v>0.6942857142857143</v>
       </c>
       <c r="H21" t="s">
         <v>32</v>
       </c>
       <c r="I21">
-        <v>0.9939789515131151</v>
+        <v>0.9723038473978806</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
